--- a/Pymaceuticals/mouse_study_combine_nodup_df.xlsx
+++ b/Pymaceuticals/mouse_study_combine_nodup_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35f71590851144db/Homework/matplotlib-challenge/Pymaceuticals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:40009_{F4ABF87D-B9CF-40BD-861F-56A681757CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4507E495-1B73-4676-920D-9DB4362F44D9}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:40009_{F4ABF87D-B9CF-40BD-861F-56A681757CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A8836D4-F396-420E-8D8E-A756D07DE7D2}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="-8150" windowWidth="14400" windowHeight="6890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="710" yWindow="270" windowWidth="17550" windowHeight="7630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mouse_study_combine_nodup_df" sheetId="1" r:id="rId1"/>
@@ -1674,7 +1674,7 @@
   <dimension ref="A1:I1893"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H670" sqref="H670"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1709,7 +1709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>95</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>105</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>115</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>125</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>135</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>145</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>155</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>165</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>175</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>185</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>195</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>205</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>215</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>225</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>235</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>245</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>255</v>
       </c>
@@ -9336,7 +9336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>263</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>273</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>283</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>290</v>
       </c>
@@ -10409,7 +10409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>300</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>310</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>318</v>
       </c>
@@ -11221,7 +11221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>328</v>
       </c>
@@ -11511,7 +11511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>338</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>341</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>351</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>361</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>371</v>
       </c>
@@ -12758,7 +12758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>381</v>
       </c>
@@ -13048,7 +13048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>391</v>
       </c>
@@ -13338,7 +13338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>401</v>
       </c>
@@ -13628,7 +13628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>411</v>
       </c>
@@ -13918,7 +13918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>421</v>
       </c>
@@ -14208,7 +14208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>431</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>441</v>
       </c>
@@ -14701,7 +14701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>448</v>
       </c>
@@ -14759,7 +14759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>450</v>
       </c>
@@ -15745,7 +15745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>484</v>
       </c>
@@ -18935,7 +18935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A596">
         <v>594</v>
       </c>
@@ -18964,7 +18964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A597">
         <v>595</v>
       </c>
@@ -19428,7 +19428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A613">
         <v>611</v>
       </c>
@@ -25982,7 +25982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A839">
         <v>837</v>
       </c>
@@ -28911,7 +28911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A940">
         <v>939</v>
       </c>
@@ -30216,7 +30216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="985" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="985" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A985">
         <v>984</v>
       </c>
@@ -31376,7 +31376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1025" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1025" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1025">
         <v>1024</v>
       </c>
@@ -33667,7 +33667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1104" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1104">
         <v>1103</v>
       </c>
@@ -33957,7 +33957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1114" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1114">
         <v>1113</v>
       </c>
@@ -34160,7 +34160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1121" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1121">
         <v>1120</v>
       </c>
@@ -34247,7 +34247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1124" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1124">
         <v>1123</v>
       </c>
@@ -35117,7 +35117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1154" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1154">
         <v>1153</v>
       </c>
@@ -37959,7 +37959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1252" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1252">
         <v>1251</v>
       </c>
@@ -41410,7 +41410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1371" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1371" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1371">
         <v>1370</v>
       </c>
@@ -42222,7 +42222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1399" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1399" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1399">
         <v>1398</v>
       </c>
@@ -43788,7 +43788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1453" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1453" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1453">
         <v>1452</v>
       </c>
@@ -46659,7 +46659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1552" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1552" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1552">
         <v>1551</v>
       </c>
@@ -47413,7 +47413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1578" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1578" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1578">
         <v>1577</v>
       </c>
@@ -47587,7 +47587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1584" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1584" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1584">
         <v>1583</v>
       </c>
@@ -49849,7 +49849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1662" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1662" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1662">
         <v>1661</v>
       </c>
@@ -52227,7 +52227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1744" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1744" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1744">
         <v>1743</v>
       </c>
@@ -52836,7 +52836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1765" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1765" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1765">
         <v>1764</v>
       </c>
@@ -53532,7 +53532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1789" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1789" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1789">
         <v>1788</v>
       </c>
@@ -54924,7 +54924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1837" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1837" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1837">
         <v>1836</v>
       </c>
@@ -55214,7 +55214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1847" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1847" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1847">
         <v>1846</v>
       </c>
@@ -56581,7 +56581,10 @@
   <autoFilter ref="A1:I1893" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
+        <filter val="Capomulin"/>
+        <filter val="Ceftamin"/>
         <filter val="Infubinol"/>
+        <filter val="Ramicane"/>
       </filters>
     </filterColumn>
     <filterColumn colId="6">
